--- a/ScalingTestResults.xlsx
+++ b/ScalingTestResults.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
   <si>
     <t>Bin</t>
   </si>
@@ -83,6 +83,12 @@
   <si>
     <t>umpa improvement</t>
   </si>
+  <si>
+    <t>nedmalloc vs system</t>
+  </si>
+  <si>
+    <t>nedmalloc (umpa) vs system</t>
+  </si>
 </sst>
 </file>
 
@@ -443,25 +449,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="105618816"/>
-        <c:axId val="105628800"/>
+        <c:axId val="103520512"/>
+        <c:axId val="103522304"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="105618816"/>
+        <c:axId val="103520512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="105628800"/>
+        <c:crossAx val="103522304"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="105628800"/>
+        <c:axId val="103522304"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -471,7 +477,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="105618816"/>
+        <c:crossAx val="103520512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -484,7 +490,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -701,24 +707,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="105634432"/>
-        <c:axId val="108155264"/>
+        <c:axId val="103821312"/>
+        <c:axId val="103822848"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="105634432"/>
+        <c:axId val="103821312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="108155264"/>
+        <c:crossAx val="103822848"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="108155264"/>
+        <c:axId val="103822848"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -728,7 +734,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="105634432"/>
+        <c:crossAx val="103821312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -741,7 +747,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -760,7 +766,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$H$1</c:f>
+              <c:f>Sheet1!$J$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -836,7 +842,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$H$3:$H$20</c:f>
+              <c:f>Sheet1!$J$3:$J$20</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="18"/>
@@ -903,7 +909,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$I$1</c:f>
+              <c:f>Sheet1!$K$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -982,7 +988,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$I$3:$I$20</c:f>
+              <c:f>Sheet1!$K$3:$K$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="18"/>
@@ -1024,24 +1030,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="68450176"/>
-        <c:axId val="68451712"/>
+        <c:axId val="103855616"/>
+        <c:axId val="103857152"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="68450176"/>
+        <c:axId val="103855616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68451712"/>
+        <c:crossAx val="103857152"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="68451712"/>
+        <c:axId val="103857152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1049,7 +1055,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="0.00%" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68450176"/>
+        <c:crossAx val="103855616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1062,7 +1068,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1081,7 +1087,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$J$1</c:f>
+              <c:f>Sheet1!$L$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1157,7 +1163,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$J$3:$J$20</c:f>
+              <c:f>Sheet1!$L$3:$L$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="18"/>
@@ -1224,7 +1230,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$K$1</c:f>
+              <c:f>Sheet1!$M$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1300,7 +1306,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$K$3:$K$20</c:f>
+              <c:f>Sheet1!$M$3:$M$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="18"/>
@@ -1342,24 +1348,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="57064832"/>
-        <c:axId val="68480384"/>
+        <c:axId val="104008704"/>
+        <c:axId val="104047360"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="57064832"/>
+        <c:axId val="104008704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68480384"/>
+        <c:crossAx val="104047360"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="68480384"/>
+        <c:axId val="104047360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1367,7 +1373,293 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="57064832"/>
+        <c:crossAx val="104008704"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-IE"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>nedmalloc vs system</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$2:$A$20</c:f>
+              <c:strCache>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1Kb</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2Kb</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4Kb</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8Kb</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>16Kb</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>32Kb</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>64Kb</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>128Kb</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>256Kb</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>512Kb</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1Mb</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2Mb</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4Mb</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$H$2:$H$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>1.8151136647934036</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.7159524746425598</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.3016691415415798</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.4042155531965124</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.9361388529636949</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.513028374705029</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.439711767121131</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.6584485034331955</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.0684447001887074</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.5007466891247447</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.5855722630817608</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.223934954084346</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.3326614378340613</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.068950298233422</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.2590638046483313</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.71221013839375269</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.96886530644618774</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.96066075879957258</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.96679021163302148</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>nedmalloc (umpa) vs system</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$I$2:$I$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>3.7113833449481235</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.0625053894221606</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.1471426755230301</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.0854916974554971</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.4175169893921344</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.5166257324931278</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.18299630975139</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.4267744492670094</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.6673167804107107</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.1193279205982276</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.7524505475974759</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.5991866467841982</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.8154695301356769</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.1331763879984607</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.3630503782772059</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.2118133478934601</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5.4226491202293055</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6.3767624562582634</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6.2456959712189946</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="56916224"/>
+        <c:axId val="56918784"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="56916224"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="56918784"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="56918784"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="56916224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1480,16 +1772,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>514349</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>304799</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>171449</xdr:rowOff>
+      <xdr:rowOff>190499</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>523874</xdr:colOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>314324</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>142874</xdr:rowOff>
+      <xdr:rowOff>161924</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1503,6 +1795,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>914400</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1796,10 +2118,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K20"/>
+  <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="I2" sqref="I2:I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1813,7 +2135,7 @@
     <col min="8" max="8" width="9.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1836,10 +2158,10 @@
         <v>3</v>
       </c>
       <c r="H1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="J1" t="s">
         <v>20</v>
@@ -1847,8 +2169,14 @@
       <c r="K1" t="s">
         <v>21</v>
       </c>
+      <c r="L1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M1" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:13">
       <c r="A2">
         <v>16</v>
       </c>
@@ -1864,16 +2192,24 @@
       <c r="G2">
         <v>224370.470309</v>
       </c>
-      <c r="H2" s="1">
+      <c r="H2">
+        <f>D2/B2</f>
+        <v>1.8151136647934036</v>
+      </c>
+      <c r="I2">
+        <f>D2/G2</f>
+        <v>3.7113833449481235</v>
+      </c>
+      <c r="J2" s="1">
         <f>(B2-G2)/B2</f>
         <v>0.51093339165190044</v>
       </c>
-      <c r="J2">
+      <c r="L2">
         <f>B2/G2</f>
         <v>2.0447112579974727</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:13">
       <c r="A3">
         <v>32</v>
       </c>
@@ -1889,16 +2225,24 @@
       <c r="G3">
         <v>281392.04071199999</v>
       </c>
-      <c r="H3" s="1">
+      <c r="H3">
+        <f t="shared" ref="H3:H20" si="0">D3/B3</f>
+        <v>1.7159524746425598</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ref="I3:I20" si="1">D3/G3</f>
+        <v>3.0625053894221606</v>
+      </c>
+      <c r="J3" s="1">
         <f>(B3-G3)/B3</f>
         <v>0.43968997391174253</v>
       </c>
-      <c r="J3">
-        <f t="shared" ref="J3:J20" si="0">B3/G3</f>
+      <c r="L3">
+        <f>B3/G3</f>
         <v>1.7847262291224548</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:13">
       <c r="A4">
         <v>64</v>
       </c>
@@ -1914,16 +2258,24 @@
       <c r="G4">
         <v>293946.55632199999</v>
       </c>
-      <c r="H4" s="1">
+      <c r="H4">
+        <f t="shared" si="0"/>
+        <v>2.3016691415415798</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="1"/>
+        <v>4.1471426755230301</v>
+      </c>
+      <c r="J4" s="1">
         <f>(B4-G4)/B4</f>
         <v>0.44499880480931425</v>
       </c>
-      <c r="J4">
-        <f t="shared" si="0"/>
+      <c r="L4">
+        <f>B4/G4</f>
         <v>1.8017979216358675</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:13">
       <c r="A5">
         <v>128</v>
       </c>
@@ -1939,16 +2291,24 @@
       <c r="G5">
         <v>271107.10761200002</v>
       </c>
-      <c r="H5" s="1">
+      <c r="H5">
+        <f t="shared" si="0"/>
+        <v>2.4042155531965124</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="1"/>
+        <v>5.0854916974554971</v>
+      </c>
+      <c r="J5" s="1">
         <f>(B5-G5)/B5</f>
         <v>0.52724029528954874</v>
       </c>
-      <c r="J5">
-        <f t="shared" si="0"/>
+      <c r="L5">
+        <f>B5/G5</f>
         <v>2.1152394970135302</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:13">
       <c r="A6">
         <v>256</v>
       </c>
@@ -1964,16 +2324,24 @@
       <c r="G6">
         <v>295448.12435200001</v>
       </c>
-      <c r="H6" s="1">
+      <c r="H6">
+        <f t="shared" si="0"/>
+        <v>2.9361388529636949</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="1"/>
+        <v>5.4175169893921344</v>
+      </c>
+      <c r="J6" s="1">
         <f>(B6-G6)/B6</f>
         <v>0.45802867647432327</v>
       </c>
-      <c r="J6">
-        <f t="shared" si="0"/>
+      <c r="L6">
+        <f>B6/G6</f>
         <v>1.845116072737423</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:13">
       <c r="A7">
         <v>512</v>
       </c>
@@ -1989,16 +2357,24 @@
       <c r="G7">
         <v>320147.103275</v>
       </c>
-      <c r="H7" s="1">
+      <c r="H7">
+        <f t="shared" si="0"/>
+        <v>3.513028374705029</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="1"/>
+        <v>6.5166257324931278</v>
+      </c>
+      <c r="J7" s="1">
         <f>(B7-G7)/B7</f>
         <v>0.46091297568488465</v>
       </c>
-      <c r="J7">
-        <f t="shared" si="0"/>
+      <c r="L7">
+        <f>B7/G7</f>
         <v>1.8549880722327772</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:13">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -2014,16 +2390,24 @@
       <c r="G8">
         <v>300509.46291599999</v>
       </c>
-      <c r="H8" s="1">
+      <c r="H8">
+        <f t="shared" si="0"/>
+        <v>4.439711767121131</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="1"/>
+        <v>8.18299630975139</v>
+      </c>
+      <c r="J8" s="1">
         <f>(B8-G8)/B8</f>
         <v>0.45744668590031229</v>
       </c>
-      <c r="J8">
-        <f t="shared" si="0"/>
+      <c r="L8">
+        <f>B8/G8</f>
         <v>1.8431368383757802</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:13">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -2039,16 +2423,24 @@
       <c r="G9">
         <v>309155.36410300003</v>
       </c>
-      <c r="H9" s="1">
+      <c r="H9">
+        <f t="shared" si="0"/>
+        <v>4.6584485034331955</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="1"/>
+        <v>8.4267744492670094</v>
+      </c>
+      <c r="J9" s="1">
         <f>(B9-G9)/B9</f>
         <v>0.44718485922707901</v>
       </c>
-      <c r="J9">
-        <f t="shared" si="0"/>
+      <c r="L9">
+        <f>B9/G9</f>
         <v>1.808922958589458</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:13">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -2070,24 +2462,32 @@
       <c r="G10">
         <v>460079.52619599999</v>
       </c>
-      <c r="H10" s="1">
+      <c r="H10">
+        <f t="shared" si="0"/>
+        <v>4.0684447001887074</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="1"/>
+        <v>6.6673167804107107</v>
+      </c>
+      <c r="J10" s="1">
         <f>(B10-G10)/B10</f>
         <v>0.38979280058475207</v>
       </c>
-      <c r="I10" s="1">
+      <c r="K10" s="1">
         <f>(E10-F10)/E10</f>
         <v>0.15804698884914012</v>
       </c>
-      <c r="J10">
-        <f t="shared" si="0"/>
+      <c r="L10">
+        <f>B10/G10</f>
         <v>1.6387876133849035</v>
       </c>
-      <c r="K10">
+      <c r="M10">
         <f>E10/F10</f>
         <v>1.1877147379437563</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:13">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -2109,24 +2509,32 @@
       <c r="G11">
         <v>1525505.8172840001</v>
       </c>
-      <c r="H11" s="1">
+      <c r="H11">
+        <f t="shared" si="0"/>
+        <v>2.5007466891247447</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="1"/>
+        <v>3.1193279205982276</v>
+      </c>
+      <c r="J11" s="1">
         <f>(B11-G11)/B11</f>
         <v>0.19830593230956323</v>
       </c>
-      <c r="I11" s="1">
-        <f t="shared" ref="I11:I20" si="1">(E11-F11)/E11</f>
+      <c r="K11" s="1">
+        <f>(E11-F11)/E11</f>
         <v>0.34566686375982419</v>
       </c>
-      <c r="J11">
-        <f t="shared" si="0"/>
+      <c r="L11">
+        <f>B11/G11</f>
         <v>1.2473586125950185</v>
       </c>
-      <c r="K11">
+      <c r="M11">
         <f>E11/F11</f>
         <v>1.5282735117864268</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:13">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -2148,24 +2556,32 @@
       <c r="G12">
         <v>2093524.1692649999</v>
       </c>
-      <c r="H12" s="1">
+      <c r="H12">
+        <f t="shared" si="0"/>
+        <v>2.5855722630817608</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="1"/>
+        <v>2.7524505475974759</v>
+      </c>
+      <c r="J12" s="1">
         <f>(B12-G12)/B12</f>
         <v>6.062898556392865E-2</v>
       </c>
-      <c r="I12" s="1">
-        <f t="shared" si="1"/>
+      <c r="K12" s="1">
+        <f>(E12-F12)/E12</f>
         <v>0.48683344070115159</v>
       </c>
-      <c r="J12">
-        <f t="shared" si="0"/>
+      <c r="L12">
+        <f>B12/G12</f>
         <v>1.0645421081044595</v>
       </c>
-      <c r="K12">
+      <c r="M12">
         <f>E12/F12</f>
         <v>1.9486850455850506</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:13">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -2187,24 +2603,32 @@
       <c r="G13">
         <v>2673664.4183009998</v>
       </c>
-      <c r="H13" s="1">
+      <c r="H13">
+        <f t="shared" si="0"/>
+        <v>3.223934954084346</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="1"/>
+        <v>3.5991866467841982</v>
+      </c>
+      <c r="J13" s="1">
         <f>(B13-G13)/B13</f>
         <v>0.10426013694931105</v>
       </c>
-      <c r="I13" s="1">
-        <f t="shared" si="1"/>
+      <c r="K13" s="1">
+        <f>(E13-F13)/E13</f>
         <v>0.59266798641547835</v>
       </c>
-      <c r="J13">
-        <f t="shared" si="0"/>
+      <c r="L13">
+        <f>B13/G13</f>
         <v>1.1163955532739431</v>
       </c>
-      <c r="K13">
+      <c r="M13">
         <f>E13/F13</f>
         <v>2.4549997708257703</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:13">
       <c r="A14" t="s">
         <v>10</v>
       </c>
@@ -2226,24 +2650,32 @@
       <c r="G14">
         <v>3384521.5494070002</v>
       </c>
-      <c r="H14" s="1">
+      <c r="H14">
+        <f t="shared" si="0"/>
+        <v>4.3326614378340613</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="1"/>
+        <v>4.8154695301356769</v>
+      </c>
+      <c r="J14" s="1">
         <f>(B14-G14)/B14</f>
         <v>0.10026189331697682</v>
       </c>
-      <c r="I14" s="1">
-        <f t="shared" si="1"/>
+      <c r="K14" s="1">
+        <f>(E14-F14)/E14</f>
         <v>0.72505750961793591</v>
       </c>
-      <c r="J14">
-        <f t="shared" si="0"/>
+      <c r="L14">
+        <f>B14/G14</f>
         <v>1.1114345303063828</v>
       </c>
-      <c r="K14">
+      <c r="M14">
         <f>E14/F14</f>
         <v>3.6371242531861312</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:13">
       <c r="A15" t="s">
         <v>11</v>
       </c>
@@ -2265,24 +2697,32 @@
       <c r="G15">
         <v>6081657.820359</v>
       </c>
-      <c r="H15" s="1">
+      <c r="H15">
+        <f t="shared" si="0"/>
+        <v>4.068950298233422</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="1"/>
+        <v>4.1331763879984607</v>
+      </c>
+      <c r="J15" s="1">
         <f>(B15-G15)/B15</f>
         <v>1.5539160136386137E-2</v>
       </c>
-      <c r="I15" s="1">
-        <f t="shared" si="1"/>
+      <c r="K15" s="1">
+        <f>(E15-F15)/E15</f>
         <v>0.78391590154877799</v>
       </c>
-      <c r="J15">
-        <f t="shared" si="0"/>
+      <c r="L15">
+        <f>B15/G15</f>
         <v>1.0157844370310747</v>
       </c>
-      <c r="K15">
+      <c r="M15">
         <f>E15/F15</f>
         <v>4.6278278094847209</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:13">
       <c r="A16" t="s">
         <v>12</v>
       </c>
@@ -2304,24 +2744,32 @@
       <c r="G16">
         <v>11614339.118494</v>
       </c>
-      <c r="H16" s="1">
+      <c r="H16">
+        <f t="shared" si="0"/>
+        <v>1.2590638046483313</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="1"/>
+        <v>3.3630503782772059</v>
+      </c>
+      <c r="J16" s="1">
         <f>(B16-G16)/B16</f>
         <v>0.62561851205651176</v>
       </c>
-      <c r="I16" s="1">
-        <f t="shared" si="1"/>
+      <c r="K16" s="1">
+        <f>(E16-F16)/E16</f>
         <v>0.81935631846544199</v>
       </c>
-      <c r="J16">
-        <f t="shared" si="0"/>
+      <c r="L16">
+        <f>B16/G16</f>
         <v>2.6710722410263696</v>
       </c>
-      <c r="K16">
+      <c r="M16">
         <f>E16/F16</f>
         <v>5.5357596319176832</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:13">
       <c r="A17" t="s">
         <v>13</v>
       </c>
@@ -2343,24 +2791,32 @@
       <c r="G17">
         <v>36878942.216252998</v>
       </c>
-      <c r="H17" s="1">
+      <c r="H17">
+        <f t="shared" si="0"/>
+        <v>0.71221013839375269</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="1"/>
+        <v>3.2118133478934601</v>
+      </c>
+      <c r="J17" s="1">
         <f>(B17-G17)/B17</f>
         <v>0.77825294895767472</v>
       </c>
-      <c r="I17" s="1">
-        <f t="shared" si="1"/>
+      <c r="K17" s="1">
+        <f>(E17-F17)/E17</f>
         <v>0.83995150259978391</v>
       </c>
-      <c r="J17">
-        <f t="shared" si="0"/>
+      <c r="L17">
+        <f>B17/G17</f>
         <v>4.5096428353815092</v>
       </c>
-      <c r="K17">
+      <c r="M17">
         <f>E17/F17</f>
         <v>6.2481061443482826</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:13">
       <c r="A18" t="s">
         <v>14</v>
       </c>
@@ -2382,24 +2838,32 @@
       <c r="G18">
         <v>75672211.440097004</v>
       </c>
-      <c r="H18" s="1">
+      <c r="H18">
+        <f t="shared" si="0"/>
+        <v>0.96886530644618774</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="1"/>
+        <v>5.4226491202293055</v>
+      </c>
+      <c r="J18" s="1">
         <f>(B18-G18)/B18</f>
         <v>0.82132989154105218</v>
       </c>
-      <c r="I18" s="1">
-        <f t="shared" si="1"/>
+      <c r="K18" s="1">
+        <f>(E18-F18)/E18</f>
         <v>0.85670238236800778</v>
       </c>
-      <c r="J18">
-        <f t="shared" si="0"/>
+      <c r="L18">
+        <f>B18/G18</f>
         <v>5.5969071078823767</v>
       </c>
-      <c r="K18">
+      <c r="M18">
         <f>E18/F18</f>
         <v>6.9784830796568897</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:13">
       <c r="A19" t="s">
         <v>15</v>
       </c>
@@ -2421,24 +2885,32 @@
       <c r="G19">
         <v>128732828.44889399</v>
       </c>
-      <c r="H19" s="1">
+      <c r="H19">
+        <f t="shared" si="0"/>
+        <v>0.96066075879957258</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="1"/>
+        <v>6.3767624562582634</v>
+      </c>
+      <c r="J19" s="1">
         <f>(B19-G19)/B19</f>
         <v>0.84934976559197939</v>
       </c>
-      <c r="I19" s="1">
-        <f t="shared" si="1"/>
+      <c r="K19" s="1">
+        <f>(E19-F19)/E19</f>
         <v>0.8573489685549065</v>
       </c>
-      <c r="J19">
-        <f t="shared" si="0"/>
+      <c r="L19">
+        <f>B19/G19</f>
         <v>6.6378920944231883</v>
       </c>
-      <c r="K19">
+      <c r="M19">
         <f>E19/F19</f>
         <v>7.0101140515405334</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:13">
       <c r="A20" t="s">
         <v>16</v>
       </c>
@@ -2460,19 +2932,27 @@
       <c r="G20">
         <v>264084125.044366</v>
       </c>
-      <c r="H20" s="1">
+      <c r="H20">
+        <f t="shared" si="0"/>
+        <v>0.96679021163302148</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="1"/>
+        <v>6.2456959712189946</v>
+      </c>
+      <c r="J20" s="1">
         <f>(B20-G20)/B20</f>
         <v>0.84520696875286272</v>
       </c>
-      <c r="I20" s="1">
-        <f t="shared" si="1"/>
+      <c r="K20" s="1">
+        <f>(E20-F20)/E20</f>
         <v>0.83706183026305137</v>
       </c>
-      <c r="J20">
-        <f t="shared" si="0"/>
+      <c r="L20">
+        <f>B20/G20</f>
         <v>6.4602391460597071</v>
       </c>
-      <c r="K20">
+      <c r="M20">
         <f>E20/F20</f>
         <v>6.1372973663226036</v>
       </c>

--- a/ScalingTestResults.xlsx
+++ b/ScalingTestResults.xlsx
@@ -11,12 +11,15 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId4"/>
+  </externalReferences>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
   <si>
     <t>Bin</t>
   </si>
@@ -89,6 +92,12 @@
   <si>
     <t>nedmalloc (umpa) vs system</t>
   </si>
+  <si>
+    <t>dlmalloc (umpa)</t>
+  </si>
+  <si>
+    <t>dlmalloc umpa improvement</t>
+  </si>
 </sst>
 </file>
 
@@ -229,58 +238,58 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>502207.755725</c:v>
+                  <c:v>1062065.9720099999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>529632.29425300006</c:v>
+                  <c:v>1151955.634483</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>573456.46194199997</c:v>
+                  <c:v>1224519.771654</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>545136.08290200005</c:v>
+                  <c:v>1128080.9222800001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>593869.05793500005</c:v>
+                  <c:v>1171299.9823680001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>553880.06138099998</c:v>
+                  <c:v>1261946.263427</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>559238.23589699995</c:v>
+                  <c:v>1206107.3871790001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>753972.62870200002</c:v>
+                  <c:v>1461592.8747149999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1902852.819753</c:v>
+                  <c:v>3789602.1530860001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2228644.6325170002</c:v>
+                  <c:v>4017733.8708239999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2984867.0675380002</c:v>
+                  <c:v>4703191.427015</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3761674.1185770002</c:v>
+                  <c:v>5408424.0256920001</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>6177653.3652689997</c:v>
+                  <c:v>7658435.4640720002</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>31022738.817276001</c:v>
+                  <c:v>43913789.775193997</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>166310857.54197401</c:v>
+                  <c:v>237156380.63263899</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>423530338.07825702</c:v>
+                  <c:v>599069120.78459096</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>854514624.25364995</c:v>
+                  <c:v>1221762750.18731</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1706046602.46454</c:v>
+                  <c:v>2451543939.2768602</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -310,58 +319,58 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>281392.04071199999</c:v>
+                  <c:v>650723.02544500004</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>293946.55632199999</c:v>
+                  <c:v>666457.11724100006</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>271107.10761200002</c:v>
+                  <c:v>712539.45669300004</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>295448.12435200001</c:v>
+                  <c:v>728179.23057000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>320147.103275</c:v>
+                  <c:v>752494.94962199999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>300509.46291599999</c:v>
+                  <c:v>802342.46035800001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>309155.36410300003</c:v>
+                  <c:v>795538.58717900002</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>460079.52619599999</c:v>
+                  <c:v>914042.20956700004</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1525505.8172840001</c:v>
+                  <c:v>2667038.0370370001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2093524.1692649999</c:v>
+                  <c:v>3182202.5300670001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2673664.4183009998</c:v>
+                  <c:v>3665009.1350759999</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3384521.5494070002</c:v>
+                  <c:v>4522829.7094860002</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>6081657.820359</c:v>
+                  <c:v>7225015.0314370003</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>11614339.118494</c:v>
+                  <c:v>14953310.919158</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>36878942.216252998</c:v>
+                  <c:v>41890232.914708003</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>75672211.440097004</c:v>
+                  <c:v>73903598.784994006</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>128732828.44889399</c:v>
+                  <c:v>123711559.062995</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>264084125.044366</c:v>
+                  <c:v>241528175.859072</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -391,83 +400,83 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>861764.641221</c:v>
+                  <c:v>1733307.330789</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1219038.3080460001</c:v>
+                  <c:v>2807946.9839079999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1378712.9448820001</c:v>
+                  <c:v>3400435.9396330002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1600595.2331610001</c:v>
+                  <c:v>4340226.5647670003</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2086278.8513849999</c:v>
+                  <c:v>5306153.2367759999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2459067.8260869998</c:v>
+                  <c:v>6209561.2404089998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2605182.5230769999</c:v>
+                  <c:v>5701688.0487179998</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3067495.94533</c:v>
+                  <c:v>6739421.4464689996</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4758552.8888889998</c:v>
+                  <c:v>8857258.7333330009</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5762321.7461019997</c:v>
+                  <c:v>15087454.33853</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>9623017.2723309994</c:v>
+                  <c:v>13721406.026144</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>16298060.395257</c:v>
+                  <c:v>25730803.092884999</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>25136564.502994001</c:v>
+                  <c:v>40905346.145209998</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>39059607.565890998</c:v>
+                  <c:v>70122587.363233998</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>118448278.86635301</c:v>
+                  <c:v>167143421.95970401</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>410343850.791448</c:v>
+                  <c:v>580165555.40621197</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>820898667.34084296</c:v>
+                  <c:v>1165191012.3996601</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1649389155.8524899</c:v>
+                  <c:v>2342106543.5364799</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="103520512"/>
-        <c:axId val="103522304"/>
+        <c:axId val="82163968"/>
+        <c:axId val="82165760"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="103520512"/>
+        <c:axId val="82163968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="103522304"/>
+        <c:crossAx val="82165760"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="103522304"/>
+        <c:axId val="82165760"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -477,7 +486,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="103520512"/>
+        <c:crossAx val="82163968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -490,7 +499,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -569,37 +578,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>3172656.1735359998</c:v>
+                  <c:v>6442788.6507590003</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4551667.2124760002</c:v>
+                  <c:v>8831659.7387910001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7945913.6875</c:v>
+                  <c:v>13209241.027344</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>14054064.460237</c:v>
+                  <c:v>22236057.005075999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>27126394.285714</c:v>
+                  <c:v>39014954.010714002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>52406305.503356002</c:v>
+                  <c:v>72301579.499329001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>104952809.30475301</c:v>
+                  <c:v>141124046.482759</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>210002267.81774601</c:v>
+                  <c:v>278491486.094724</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>419611117.31885999</c:v>
+                  <c:v>553004213.537992</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>843887778.655123</c:v>
+                  <c:v>1116774565.9754601</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1676407414.7435701</c:v>
+                  <c:v>2239463098.80934</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -670,61 +679,61 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>2671227.4186550002</c:v>
+                  <c:v>14449005.143167</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2978306.6822609999</c:v>
+                  <c:v>19473963.142299999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4077577.1875</c:v>
+                  <c:v>13242989.755859001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5724670.3756349999</c:v>
+                  <c:v>22429024.184432998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7458198.4000000004</c:v>
+                  <c:v>14354875.542857001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>11324169.277852001</c:v>
+                  <c:v>21757271.813423</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>18959061.860204998</c:v>
+                  <c:v>29023627.309413001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>33610547.414867997</c:v>
+                  <c:v>38988080.588729002</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>60129273.443691</c:v>
+                  <c:v>65604289.218452998</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>120381462.049062</c:v>
+                  <c:v>119444540.898268</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>273150755.89176702</c:v>
+                  <c:v>258907931.78623</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="103821312"/>
-        <c:axId val="103822848"/>
+        <c:axId val="82468864"/>
+        <c:axId val="82470400"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="103821312"/>
+        <c:axId val="82468864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="103822848"/>
+        <c:crossAx val="82470400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="103822848"/>
+        <c:axId val="82470400"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -734,7 +743,932 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="103821312"/>
+        <c:crossAx val="82468864"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-IE"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>nedmalloc umpa improvement</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$3:$A$20</c:f>
+              <c:strCache>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1Kb</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2Kb</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4Kb</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8Kb</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>16Kb</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>32Kb</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>64Kb</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>128Kb</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>256Kb</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>512Kb</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1Mb</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2Mb</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4Mb</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$K$3:$K$20</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>0.38730451535559307</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.42145591610382865</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.41810702188128085</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.35449734483741296</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.35755574067311779</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.36420235662085843</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.34040816295826815</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.37462598143465109</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.29622215491271514</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.20796084748780039</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.22073996094985845</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.16374350679589869</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.6593861065788724E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.65948484529101559</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.82336451246657782</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.87663594029316072</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.89874338610828608</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.90147915687355917</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$L$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>umpa improvement</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$2:$A$20</c:f>
+              <c:strCache>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1Kb</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2Kb</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4Kb</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8Kb</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>16Kb</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>32Kb</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>64Kb</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>128Kb</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>256Kb</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>512Kb</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1Mb</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2Mb</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4Mb</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$L$3:$L$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="7" formatCode="0.00%">
+                  <c:v>-1.2426632202912349</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="0.00%">
+                  <c:v>-1.2050173713968133</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="0.00%">
+                  <c:v>-2.5549332051053443E-3</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="0.00%">
+                  <c:v>-8.6781203750714245E-3</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="0.00%">
+                  <c:v>0.63206734682001764</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="0.00%">
+                  <c:v>0.69907612027168897</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="0.00%">
+                  <c:v>0.79433960382535662</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="0.00%">
+                  <c:v>0.86000261216076146</c:v>
+                </c:pt>
+                <c:pt idx="15" formatCode="0.00%">
+                  <c:v>0.88136746951938749</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="0.00%">
+                  <c:v>0.89304507414713752</c:v>
+                </c:pt>
+                <c:pt idx="17" formatCode="0.00%">
+                  <c:v>0.88438839116220125</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="82499072"/>
+        <c:axId val="82500608"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="82499072"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="82500608"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="82500608"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="82499072"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-IE"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$N$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>umpa improvement</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$3:$A$20</c:f>
+              <c:strCache>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1Kb</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2Kb</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4Kb</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8Kb</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>16Kb</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>32Kb</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>64Kb</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>128Kb</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>256Kb</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>512Kb</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1Mb</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2Mb</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4Mb</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$N$3:$N$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="7">
+                  <c:v>0.44589842601072255</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.45351116638438521</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.99745157784328353</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.99139654147366207</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.7178886988071365</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.3230995190639221</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.8623848762345903</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7.1429904188520794</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8.4293911286282857</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>9.3497330022527123</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8.6496504118629165</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$O$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>dlmalloc umpa improvement</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$3:$A$20</c:f>
+              <c:strCache>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1Kb</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2Kb</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4Kb</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8Kb</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>16Kb</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>32Kb</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>64Kb</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>128Kb</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>256Kb</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>512Kb</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1Mb</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2Mb</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4Mb</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$O$3:$O$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>1.9305264499005643</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.7831934361174755</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.8789571515892092</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.7354570122750521</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.7114361554179207</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.6086957216914826</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.7039896311975189</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.5301529633182125</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.4501607402144971</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.3615301483271818</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.5699209124849998</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.268089541586412</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.95825184210672487</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.0394796663102608</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6.8106433968411402</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7.5264451429436487</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>9.854572700961624</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>10.33807785905357</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="82512896"/>
+        <c:axId val="82551552"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="82512896"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="82551552"/>
+        <c:crossesAt val="1"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="82551552"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="82512896"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-IE"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>nedmalloc vs system</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$2:$A$20</c:f>
+              <c:strCache>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1Kb</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2Kb</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4Kb</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8Kb</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>16Kb</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>32Kb</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>64Kb</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>128Kb</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>256Kb</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>512Kb</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1Mb</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2Mb</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4Mb</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$I$2:$I$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>1.5976493163834797</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.6320147490542896</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.4375478532801416</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.7769547036712336</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.8474425717570253</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.5301402857094111</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.9206225497637481</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.7273469255949463</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.6110114266827811</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.337252929339888</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.7552149603765828</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.9174670516978383</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.7575417479573048</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.3412144474036705</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.5968238615298198</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.70478146745970649</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.96844510137057094</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.95369662581464631</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.9553598065337302</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>nedmalloc (umpa) vs system</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$J$2:$J$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>3.0205128675196766</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.6636637448070468</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.2132448004041763</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.7722773913670986</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.9603822555740598</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.0514137529314107</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.7392903245309164</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.1670791846016293</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.3732059372417798</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.3210095282979735</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.741198649669963</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.7438940860537486</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.6890939402202676</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.6616278259941888</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.6894355198214859</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.9900332447427997</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>7.850301811337685</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>9.4186106878366527</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9.6970323864121895</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="82563840"/>
+        <c:axId val="82565376"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="82563840"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="82565376"/>
+        <c:crossesAt val="0"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="82565376"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="82563840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -753,7 +1687,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-IE"/>
   <c:chart>
@@ -766,11 +1700,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$J$1</c:f>
+              <c:f>Sheet1!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>nedmalloc umpa improvement</c:v>
+                  <c:v>dlmalloc (normal)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -842,63 +1776,63 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$J$3:$J$20</c:f>
+              <c:f>Sheet1!$C$3:$C$20</c:f>
               <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>0.43968997391174253</c:v>
+                  <c:v>895965.51908400003</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.44499880480931425</c:v>
+                  <c:v>936570.85287399997</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.52724029528954874</c:v>
+                  <c:v>1016905.690289</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.45802867647432327</c:v>
+                  <c:v>1246459.735751</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.46091297568488465</c:v>
+                  <c:v>1244808.453401</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.45744668590031229</c:v>
+                  <c:v>1199094.5089509999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.44718485922707901</c:v>
+                  <c:v>1303580.5769229999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.38979280058475207</c:v>
+                  <c:v>1486958.637813</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.19830593230956323</c:v>
+                  <c:v>1710393.338272</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6.062898556392865E-2</c:v>
+                  <c:v>2161092.6881960002</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.10426013694931105</c:v>
+                  <c:v>2986551.6209149999</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.10026189331697682</c:v>
+                  <c:v>3697185.6304350002</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.5539160136386137E-2</c:v>
+                  <c:v>7322735.8113770001</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.62561851205651176</c:v>
+                  <c:v>39842185.900331996</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.77825294895767472</c:v>
+                  <c:v>208118950.02686399</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.82132989154105218</c:v>
+                  <c:v>586296462.39814401</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.84934976559197939</c:v>
+                  <c:v>1246693994.91134</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.84520696875286272</c:v>
+                  <c:v>2508185308.1338902</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -909,11 +1843,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$K$1</c:f>
+              <c:f>Sheet1!$H$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>umpa improvement</c:v>
+                  <c:v>dlmalloc (umpa)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -921,141 +1855,181 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$A$2:$A$20</c:f>
-              <c:strCache>
-                <c:ptCount val="19"/>
-                <c:pt idx="0">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>128</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>256</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>512</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1Kb</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2Kb</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4Kb</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>8Kb</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>16Kb</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>32Kb</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>64Kb</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>128Kb</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>256Kb</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>512Kb</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1Mb</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2Mb</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>4Mb</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$K$3:$K$20</c:f>
+              <c:f>Sheet1!$H$3:$H$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="18"/>
-                <c:pt idx="7" formatCode="0.00%">
-                  <c:v>0.15804698884914012</c:v>
-                </c:pt>
-                <c:pt idx="8" formatCode="0.00%">
-                  <c:v>0.34566686375982419</c:v>
-                </c:pt>
-                <c:pt idx="9" formatCode="0.00%">
-                  <c:v>0.48683344070115159</c:v>
-                </c:pt>
-                <c:pt idx="10" formatCode="0.00%">
-                  <c:v>0.59266798641547835</c:v>
-                </c:pt>
-                <c:pt idx="11" formatCode="0.00%">
-                  <c:v>0.72505750961793591</c:v>
-                </c:pt>
-                <c:pt idx="12" formatCode="0.00%">
-                  <c:v>0.78391590154877799</c:v>
-                </c:pt>
-                <c:pt idx="13" formatCode="0.00%">
-                  <c:v>0.81935631846544199</c:v>
-                </c:pt>
-                <c:pt idx="14" formatCode="0.00%">
-                  <c:v>0.83995150259978391</c:v>
-                </c:pt>
-                <c:pt idx="15" formatCode="0.00%">
-                  <c:v>0.85670238236800778</c:v>
-                </c:pt>
-                <c:pt idx="16" formatCode="0.00%">
-                  <c:v>0.8573489685549065</c:v>
-                </c:pt>
-                <c:pt idx="17" formatCode="0.00%">
-                  <c:v>0.83706183026305137</c:v>
+                <c:pt idx="0">
+                  <c:v>464104.244275</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>525221.11953999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>541207.49343799998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>718231.40932600002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>727347.29219099996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>745383.04092099995</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>765016.73076900002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>971771.23690200003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1179450.8641979999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1587252.9086859999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1902358.008715</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2915555.6521740002</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7641765.4416169999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13108225.839423999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>30557898.556749001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>77898191.146430001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>126509188.449103</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>242616213.80006799</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Win7 System Allocator</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$3:$D$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>1733307.330789</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2807946.9839079999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3400435.9396330002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4340226.5647670003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5306153.2367759999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6209561.2404089998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5701688.0487179998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6739421.4464689996</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8857258.7333330009</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>15087454.33853</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>13721406.026144</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>25730803.092884999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>40905346.145209998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>70122587.363233998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>167143421.95970401</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>580165555.40621197</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1165191012.3996601</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2342106543.5364799</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="103855616"/>
-        <c:axId val="103857152"/>
+        <c:axId val="47775744"/>
+        <c:axId val="47777664"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="103855616"/>
+        <c:axId val="47775744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="103857152"/>
+        <c:crossAx val="47777664"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="103857152"/>
+        <c:axId val="47777664"/>
         <c:scaling>
+          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
+          <c:min val="100000"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:majorGridlines/>
-        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="103855616"/>
+        <c:crossAx val="47775744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1068,611 +2042,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-IE"/>
-  <c:chart>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$L$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>nedmalloc umpa improvement</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$A$3:$A$20</c:f>
-              <c:strCache>
-                <c:ptCount val="18"/>
-                <c:pt idx="0">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>128</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>256</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>512</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1Kb</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2Kb</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4Kb</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8Kb</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>16Kb</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>32Kb</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>64Kb</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>128Kb</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>256Kb</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>512Kb</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1Mb</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2Mb</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>4Mb</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$L$3:$L$20</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
-                <c:pt idx="0">
-                  <c:v>1.7847262291224548</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.8017979216358675</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.1152394970135302</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.845116072737423</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.8549880722327772</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.8431368383757802</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.808922958589458</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.6387876133849035</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.2473586125950185</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.0645421081044595</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.1163955532739431</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.1114345303063828</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.0157844370310747</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2.6710722410263696</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>4.5096428353815092</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>5.5969071078823767</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>6.6378920944231883</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>6.4602391460597071</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$M$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>umpa improvement</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$A$3:$A$20</c:f>
-              <c:strCache>
-                <c:ptCount val="18"/>
-                <c:pt idx="0">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>128</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>256</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>512</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1Kb</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2Kb</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4Kb</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8Kb</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>16Kb</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>32Kb</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>64Kb</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>128Kb</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>256Kb</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>512Kb</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1Mb</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2Mb</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>4Mb</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$M$3:$M$20</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
-                <c:pt idx="7">
-                  <c:v>1.1877147379437563</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.5282735117864268</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.9486850455850506</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2.4549997708257703</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>3.6371242531861312</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>4.6278278094847209</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>5.5357596319176832</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>6.2481061443482826</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>6.9784830796568897</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>7.0101140515405334</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>6.1372973663226036</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:marker val="1"/>
-        <c:axId val="104008704"/>
-        <c:axId val="104047360"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="104008704"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="b"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="104047360"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="104047360"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="104008704"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:layout/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-IE"/>
-  <c:chart>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$H$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>nedmalloc vs system</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$A$2:$A$20</c:f>
-              <c:strCache>
-                <c:ptCount val="19"/>
-                <c:pt idx="0">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>128</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>256</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>512</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1Kb</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2Kb</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4Kb</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>8Kb</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>16Kb</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>32Kb</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>64Kb</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>128Kb</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>256Kb</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>512Kb</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1Mb</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2Mb</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>4Mb</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$H$2:$H$20</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
-                <c:pt idx="0">
-                  <c:v>1.8151136647934036</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.7159524746425598</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.3016691415415798</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.4042155531965124</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.9361388529636949</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3.513028374705029</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4.439711767121131</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4.6584485034331955</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4.0684447001887074</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2.5007466891247447</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2.5855722630817608</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>3.223934954084346</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>4.3326614378340613</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>4.068950298233422</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1.2590638046483313</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.71221013839375269</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.96886530644618774</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.96066075879957258</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.96679021163302148</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$I$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>nedmalloc (umpa) vs system</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$I$2:$I$20</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
-                <c:pt idx="0">
-                  <c:v>3.7113833449481235</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.0625053894221606</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.1471426755230301</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5.0854916974554971</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5.4175169893921344</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6.5166257324931278</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>8.18299630975139</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8.4267744492670094</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>6.6673167804107107</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3.1193279205982276</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2.7524505475974759</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>3.5991866467841982</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>4.8154695301356769</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>4.1331763879984607</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>3.3630503782772059</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>3.2118133478934601</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>5.4226491202293055</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>6.3767624562582634</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>6.2456959712189946</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:marker val="1"/>
-        <c:axId val="56916224"/>
-        <c:axId val="56918784"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="56916224"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="b"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="56918784"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="56918784"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="56916224"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:layout/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1772,16 +2142,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>304799</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>295274</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>190499</xdr:rowOff>
+      <xdr:rowOff>85724</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>314324</xdr:colOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>304799</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>161924</xdr:rowOff>
+      <xdr:rowOff>57149</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1802,16 +2172,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>914400</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1830,7 +2200,146 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>781050</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="scalingtest_dlmalloc"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="6">
+          <cell r="B6">
+            <v>355602.66402000003</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="B7">
+            <v>380473.14634099999</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="B8">
+            <v>404134.01025300001</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="B9">
+            <v>458967.37935300003</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="B10">
+            <v>575861.39417800005</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="B11">
+            <v>599385.77155199996</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="B12">
+            <v>621779.58450300002</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="B13">
+            <v>666785.12285000004</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="B14">
+            <v>742602.02522499999</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="B15">
+            <v>751923.94997099997</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="B16">
+            <v>857866.62764800002</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="B17">
+            <v>920264.90692800004</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="B18">
+            <v>1071028.4946709999</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="B19">
+            <v>1926551.659608</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="B20">
+            <v>4627559.5455529997</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="B21">
+            <v>18434335.808414999</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="B22">
+            <v>53977534.176798001</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="B23">
+            <v>90421856.267807007</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="B24">
+            <v>180916711.35948801</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2118,10 +2627,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M20"/>
+  <dimension ref="A1:O20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:I20"/>
+      <selection activeCell="H2" sqref="H2:H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2132,10 +2641,11 @@
     <col min="5" max="5" width="24.140625" customWidth="1"/>
     <col min="6" max="6" width="17.140625" customWidth="1"/>
     <col min="7" max="7" width="18.42578125" customWidth="1"/>
-    <col min="8" max="8" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.7109375" customWidth="1"/>
+    <col min="9" max="9" width="23.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2158,803 +2668,942 @@
         <v>3</v>
       </c>
       <c r="H1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" t="s">
         <v>22</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>23</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>20</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>21</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>20</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>21</v>
       </c>
+      <c r="O1" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:15">
       <c r="A2">
         <v>16</v>
       </c>
       <c r="B2">
-        <v>458772.82660299999</v>
+        <v>1008759.16152</v>
       </c>
       <c r="C2">
-        <v>360269.37767199997</v>
+        <v>912078.90023799997</v>
       </c>
       <c r="D2">
-        <v>832724.82660300005</v>
+        <v>1611643.3847980001</v>
       </c>
       <c r="G2">
-        <v>224370.470309</v>
+        <v>533566.13776700001</v>
       </c>
       <c r="H2">
+        <v>480665.56056999997</v>
+      </c>
+      <c r="I2">
         <f>D2/B2</f>
-        <v>1.8151136647934036</v>
-      </c>
-      <c r="I2">
+        <v>1.5976493163834797</v>
+      </c>
+      <c r="J2">
         <f>D2/G2</f>
-        <v>3.7113833449481235</v>
-      </c>
-      <c r="J2" s="1">
+        <v>3.0205128675196766</v>
+      </c>
+      <c r="K2" s="1">
         <f>(B2-G2)/B2</f>
-        <v>0.51093339165190044</v>
-      </c>
-      <c r="L2">
+        <v>0.47106687292631705</v>
+      </c>
+      <c r="M2">
         <f>B2/G2</f>
-        <v>2.0447112579974727</v>
+        <v>1.8905981660337472</v>
+      </c>
+      <c r="O2">
+        <f>C2/H2</f>
+        <v>1.8975332852147886</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:15">
       <c r="A3">
         <v>32</v>
       </c>
       <c r="B3">
-        <v>502207.755725</v>
+        <v>1062065.9720099999</v>
       </c>
       <c r="C3">
-        <v>399617.302799</v>
+        <v>895965.51908400003</v>
       </c>
       <c r="D3">
-        <v>861764.641221</v>
+        <v>1733307.330789</v>
       </c>
       <c r="G3">
-        <v>281392.04071199999</v>
+        <v>650723.02544500004</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:H20" si="0">D3/B3</f>
-        <v>1.7159524746425598</v>
+        <v>464104.244275</v>
       </c>
       <c r="I3">
-        <f t="shared" ref="I3:I20" si="1">D3/G3</f>
-        <v>3.0625053894221606</v>
-      </c>
-      <c r="J3" s="1">
+        <f>D3/B3</f>
+        <v>1.6320147490542896</v>
+      </c>
+      <c r="J3">
+        <f>D3/G3</f>
+        <v>2.6636637448070468</v>
+      </c>
+      <c r="K3" s="1">
         <f>(B3-G3)/B3</f>
-        <v>0.43968997391174253</v>
-      </c>
-      <c r="L3">
+        <v>0.38730451535559307</v>
+      </c>
+      <c r="M3">
         <f>B3/G3</f>
-        <v>1.7847262291224548</v>
+        <v>1.6321321522066952</v>
+      </c>
+      <c r="O3">
+        <f t="shared" ref="O3:O20" si="0">C3/H3</f>
+        <v>1.9305264499005643</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:15">
       <c r="A4">
         <v>64</v>
       </c>
       <c r="B4">
-        <v>529632.29425300006</v>
+        <v>1151955.634483</v>
       </c>
       <c r="C4">
-        <v>398989.60919500003</v>
+        <v>936570.85287399997</v>
       </c>
       <c r="D4">
-        <v>1219038.3080460001</v>
+        <v>2807946.9839079999</v>
       </c>
       <c r="G4">
-        <v>293946.55632199999</v>
+        <v>666457.11724100006</v>
       </c>
       <c r="H4">
+        <v>525221.11953999999</v>
+      </c>
+      <c r="I4">
+        <f>D4/B4</f>
+        <v>2.4375478532801416</v>
+      </c>
+      <c r="J4">
+        <f>D4/G4</f>
+        <v>4.2132448004041763</v>
+      </c>
+      <c r="K4" s="1">
+        <f>(B4-G4)/B4</f>
+        <v>0.42145591610382865</v>
+      </c>
+      <c r="M4">
+        <f>B4/G4</f>
+        <v>1.7284767536910211</v>
+      </c>
+      <c r="O4">
         <f t="shared" si="0"/>
-        <v>2.3016691415415798</v>
-      </c>
-      <c r="I4">
-        <f t="shared" si="1"/>
-        <v>4.1471426755230301</v>
-      </c>
-      <c r="J4" s="1">
-        <f>(B4-G4)/B4</f>
-        <v>0.44499880480931425</v>
-      </c>
-      <c r="L4">
-        <f>B4/G4</f>
-        <v>1.8017979216358675</v>
+        <v>1.7831934361174755</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:15">
       <c r="A5">
         <v>128</v>
       </c>
       <c r="B5">
-        <v>573456.46194199997</v>
+        <v>1224519.771654</v>
       </c>
       <c r="C5">
-        <v>411195.04461899999</v>
+        <v>1016905.690289</v>
       </c>
       <c r="D5">
-        <v>1378712.9448820001</v>
+        <v>3400435.9396330002</v>
       </c>
       <c r="G5">
-        <v>271107.10761200002</v>
+        <v>712539.45669300004</v>
       </c>
       <c r="H5">
+        <v>541207.49343799998</v>
+      </c>
+      <c r="I5">
+        <f>D5/B5</f>
+        <v>2.7769547036712336</v>
+      </c>
+      <c r="J5">
+        <f>D5/G5</f>
+        <v>4.7722773913670986</v>
+      </c>
+      <c r="K5" s="1">
+        <f>(B5-G5)/B5</f>
+        <v>0.41810702188128085</v>
+      </c>
+      <c r="M5">
+        <f>B5/G5</f>
+        <v>1.718529072533296</v>
+      </c>
+      <c r="O5">
         <f t="shared" si="0"/>
-        <v>2.4042155531965124</v>
-      </c>
-      <c r="I5">
-        <f t="shared" si="1"/>
-        <v>5.0854916974554971</v>
-      </c>
-      <c r="J5" s="1">
-        <f>(B5-G5)/B5</f>
-        <v>0.52724029528954874</v>
-      </c>
-      <c r="L5">
-        <f>B5/G5</f>
-        <v>2.1152394970135302</v>
+        <v>1.8789571515892092</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:15">
       <c r="A6">
         <v>256</v>
       </c>
       <c r="B6">
-        <v>545136.08290200005</v>
+        <v>1128080.9222800001</v>
       </c>
       <c r="C6">
-        <v>554090.52849699999</v>
+        <v>1246459.735751</v>
       </c>
       <c r="D6">
-        <v>1600595.2331610001</v>
+        <v>4340226.5647670003</v>
       </c>
       <c r="G6">
-        <v>295448.12435200001</v>
+        <v>728179.23057000001</v>
       </c>
       <c r="H6">
+        <v>718231.40932600002</v>
+      </c>
+      <c r="I6">
+        <f>D6/B6</f>
+        <v>3.8474425717570253</v>
+      </c>
+      <c r="J6">
+        <f>D6/G6</f>
+        <v>5.9603822555740598</v>
+      </c>
+      <c r="K6" s="1">
+        <f>(B6-G6)/B6</f>
+        <v>0.35449734483741296</v>
+      </c>
+      <c r="M6">
+        <f>B6/G6</f>
+        <v>1.5491803046853825</v>
+      </c>
+      <c r="O6">
         <f t="shared" si="0"/>
-        <v>2.9361388529636949</v>
-      </c>
-      <c r="I6">
-        <f t="shared" si="1"/>
-        <v>5.4175169893921344</v>
-      </c>
-      <c r="J6" s="1">
-        <f>(B6-G6)/B6</f>
-        <v>0.45802867647432327</v>
-      </c>
-      <c r="L6">
-        <f>B6/G6</f>
-        <v>1.845116072737423</v>
+        <v>1.7354570122750521</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:15">
       <c r="A7">
         <v>512</v>
       </c>
       <c r="B7">
-        <v>593869.05793500005</v>
+        <v>1171299.9823680001</v>
       </c>
       <c r="C7">
-        <v>563885.38035300002</v>
+        <v>1244808.453401</v>
       </c>
       <c r="D7">
-        <v>2086278.8513849999</v>
+        <v>5306153.2367759999</v>
       </c>
       <c r="G7">
-        <v>320147.103275</v>
+        <v>752494.94962199999</v>
       </c>
       <c r="H7">
+        <v>727347.29219099996</v>
+      </c>
+      <c r="I7">
+        <f>D7/B7</f>
+        <v>4.5301402857094111</v>
+      </c>
+      <c r="J7">
+        <f>D7/G7</f>
+        <v>7.0514137529314107</v>
+      </c>
+      <c r="K7" s="1">
+        <f>(B7-G7)/B7</f>
+        <v>0.35755574067311779</v>
+      </c>
+      <c r="M7">
+        <f>B7/G7</f>
+        <v>1.556555273834566</v>
+      </c>
+      <c r="O7">
         <f t="shared" si="0"/>
-        <v>3.513028374705029</v>
-      </c>
-      <c r="I7">
-        <f t="shared" si="1"/>
-        <v>6.5166257324931278</v>
-      </c>
-      <c r="J7" s="1">
-        <f>(B7-G7)/B7</f>
-        <v>0.46091297568488465</v>
-      </c>
-      <c r="L7">
-        <f>B7/G7</f>
-        <v>1.8549880722327772</v>
+        <v>1.7114361554179207</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:15">
       <c r="A8" t="s">
         <v>4</v>
       </c>
       <c r="B8">
-        <v>553880.06138099998</v>
+        <v>1261946.263427</v>
       </c>
       <c r="C8">
-        <v>649139.80562700005</v>
+        <v>1199094.5089509999</v>
       </c>
       <c r="D8">
-        <v>2459067.8260869998</v>
+        <v>6209561.2404089998</v>
       </c>
       <c r="G8">
-        <v>300509.46291599999</v>
+        <v>802342.46035800001</v>
       </c>
       <c r="H8">
+        <v>745383.04092099995</v>
+      </c>
+      <c r="I8">
+        <f>D8/B8</f>
+        <v>4.9206225497637481</v>
+      </c>
+      <c r="J8">
+        <f>D8/G8</f>
+        <v>7.7392903245309164</v>
+      </c>
+      <c r="K8" s="1">
+        <f>(B8-G8)/B8</f>
+        <v>0.36420235662085843</v>
+      </c>
+      <c r="M8">
+        <f>B8/G8</f>
+        <v>1.572827471780476</v>
+      </c>
+      <c r="O8">
         <f t="shared" si="0"/>
-        <v>4.439711767121131</v>
-      </c>
-      <c r="I8">
-        <f t="shared" si="1"/>
-        <v>8.18299630975139</v>
-      </c>
-      <c r="J8" s="1">
-        <f>(B8-G8)/B8</f>
-        <v>0.45744668590031229</v>
-      </c>
-      <c r="L8">
-        <f>B8/G8</f>
-        <v>1.8431368383757802</v>
+        <v>1.6086957216914826</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:15">
       <c r="A9" t="s">
         <v>6</v>
       </c>
       <c r="B9">
-        <v>559238.23589699995</v>
+        <v>1206107.3871790001</v>
       </c>
       <c r="C9">
-        <v>600590.44102599996</v>
+        <v>1303580.5769229999</v>
       </c>
       <c r="D9">
-        <v>2605182.5230769999</v>
+        <v>5701688.0487179998</v>
       </c>
       <c r="G9">
-        <v>309155.36410300003</v>
+        <v>795538.58717900002</v>
       </c>
       <c r="H9">
+        <v>765016.73076900002</v>
+      </c>
+      <c r="I9">
+        <f>D9/B9</f>
+        <v>4.7273469255949463</v>
+      </c>
+      <c r="J9">
+        <f>D9/G9</f>
+        <v>7.1670791846016293</v>
+      </c>
+      <c r="K9" s="1">
+        <f>(B9-G9)/B9</f>
+        <v>0.34040816295826815</v>
+      </c>
+      <c r="M9">
+        <f>B9/G9</f>
+        <v>1.5160891082051562</v>
+      </c>
+      <c r="O9">
         <f t="shared" si="0"/>
-        <v>4.6584485034331955</v>
-      </c>
-      <c r="I9">
-        <f t="shared" si="1"/>
-        <v>8.4267744492670094</v>
-      </c>
-      <c r="J9" s="1">
-        <f>(B9-G9)/B9</f>
-        <v>0.44718485922707901</v>
-      </c>
-      <c r="L9">
-        <f>B9/G9</f>
-        <v>1.808922958589458</v>
+        <v>1.7039896311975189</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:15">
       <c r="A10" t="s">
         <v>5</v>
       </c>
       <c r="B10">
-        <v>753972.62870200002</v>
+        <v>1461592.8747149999</v>
       </c>
       <c r="C10">
-        <v>811700.993166</v>
+        <v>1486958.637813</v>
       </c>
       <c r="D10">
-        <v>3067495.94533</v>
+        <v>6739421.4464689996</v>
       </c>
       <c r="E10">
-        <v>3172656.1735359998</v>
+        <v>6442788.6507590003</v>
       </c>
       <c r="F10">
-        <v>2671227.4186550002</v>
+        <v>14449005.143167</v>
       </c>
       <c r="G10">
-        <v>460079.52619599999</v>
+        <v>914042.20956700004</v>
       </c>
       <c r="H10">
+        <v>971771.23690200003</v>
+      </c>
+      <c r="I10">
+        <f>D10/B10</f>
+        <v>4.6110114266827811</v>
+      </c>
+      <c r="J10">
+        <f>D10/G10</f>
+        <v>7.3732059372417798</v>
+      </c>
+      <c r="K10" s="1">
+        <f>(B10-G10)/B10</f>
+        <v>0.37462598143465109</v>
+      </c>
+      <c r="L10" s="1">
+        <f>(E10-F10)/E10</f>
+        <v>-1.2426632202912349</v>
+      </c>
+      <c r="M10">
+        <f>B10/G10</f>
+        <v>1.5990430851189963</v>
+      </c>
+      <c r="N10">
+        <f>E10/F10</f>
+        <v>0.44589842601072255</v>
+      </c>
+      <c r="O10">
         <f t="shared" si="0"/>
-        <v>4.0684447001887074</v>
-      </c>
-      <c r="I10">
-        <f t="shared" si="1"/>
-        <v>6.6673167804107107</v>
-      </c>
-      <c r="J10" s="1">
-        <f>(B10-G10)/B10</f>
-        <v>0.38979280058475207</v>
-      </c>
-      <c r="K10" s="1">
-        <f>(E10-F10)/E10</f>
-        <v>0.15804698884914012</v>
-      </c>
-      <c r="L10">
-        <f>B10/G10</f>
-        <v>1.6387876133849035</v>
-      </c>
-      <c r="M10">
-        <f>E10/F10</f>
-        <v>1.1877147379437563</v>
+        <v>1.5301529633182125</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:15">
       <c r="A11" t="s">
         <v>7</v>
       </c>
       <c r="B11">
-        <v>1902852.819753</v>
+        <v>3789602.1530860001</v>
       </c>
       <c r="C11">
-        <v>975601.93580199999</v>
+        <v>1710393.338272</v>
       </c>
       <c r="D11">
-        <v>4758552.8888889998</v>
+        <v>8857258.7333330009</v>
       </c>
       <c r="E11">
-        <v>4551667.2124760002</v>
+        <v>8831659.7387910001</v>
       </c>
       <c r="F11">
-        <v>2978306.6822609999</v>
+        <v>19473963.142299999</v>
       </c>
       <c r="G11">
-        <v>1525505.8172840001</v>
+        <v>2667038.0370370001</v>
       </c>
       <c r="H11">
+        <v>1179450.8641979999</v>
+      </c>
+      <c r="I11">
+        <f>D11/B11</f>
+        <v>2.337252929339888</v>
+      </c>
+      <c r="J11">
+        <f>D11/G11</f>
+        <v>3.3210095282979735</v>
+      </c>
+      <c r="K11" s="1">
+        <f>(B11-G11)/B11</f>
+        <v>0.29622215491271514</v>
+      </c>
+      <c r="L11" s="1">
+        <f>(E11-F11)/E11</f>
+        <v>-1.2050173713968133</v>
+      </c>
+      <c r="M11">
+        <f>B11/G11</f>
+        <v>1.4209029269399305</v>
+      </c>
+      <c r="N11">
+        <f>E11/F11</f>
+        <v>0.45351116638438521</v>
+      </c>
+      <c r="O11">
         <f t="shared" si="0"/>
-        <v>2.5007466891247447</v>
-      </c>
-      <c r="I11">
-        <f t="shared" si="1"/>
-        <v>3.1193279205982276</v>
-      </c>
-      <c r="J11" s="1">
-        <f>(B11-G11)/B11</f>
-        <v>0.19830593230956323</v>
-      </c>
-      <c r="K11" s="1">
-        <f>(E11-F11)/E11</f>
-        <v>0.34566686375982419</v>
-      </c>
-      <c r="L11">
-        <f>B11/G11</f>
-        <v>1.2473586125950185</v>
-      </c>
-      <c r="M11">
-        <f>E11/F11</f>
-        <v>1.5282735117864268</v>
+        <v>1.4501607402144971</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:15">
       <c r="A12" t="s">
         <v>8</v>
       </c>
       <c r="B12">
-        <v>2228644.6325170002</v>
+        <v>4017733.8708239999</v>
       </c>
       <c r="C12">
-        <v>1256285.4342980001</v>
+        <v>2161092.6881960002</v>
       </c>
       <c r="D12">
-        <v>5762321.7461019997</v>
+        <v>15087454.33853</v>
       </c>
       <c r="E12">
-        <v>7945913.6875</v>
+        <v>13209241.027344</v>
       </c>
       <c r="F12">
-        <v>4077577.1875</v>
+        <v>13242989.755859001</v>
       </c>
       <c r="G12">
-        <v>2093524.1692649999</v>
+        <v>3182202.5300670001</v>
       </c>
       <c r="H12">
+        <v>1587252.9086859999</v>
+      </c>
+      <c r="I12">
+        <f>D12/B12</f>
+        <v>3.7552149603765828</v>
+      </c>
+      <c r="J12">
+        <f>D12/G12</f>
+        <v>4.741198649669963</v>
+      </c>
+      <c r="K12" s="1">
+        <f>(B12-G12)/B12</f>
+        <v>0.20796084748780039</v>
+      </c>
+      <c r="L12" s="1">
+        <f>(E12-F12)/E12</f>
+        <v>-2.5549332051053443E-3</v>
+      </c>
+      <c r="M12">
+        <f>B12/G12</f>
+        <v>1.262563847794882</v>
+      </c>
+      <c r="N12">
+        <f>E12/F12</f>
+        <v>0.99745157784328353</v>
+      </c>
+      <c r="O12">
         <f t="shared" si="0"/>
-        <v>2.5855722630817608</v>
-      </c>
-      <c r="I12">
-        <f t="shared" si="1"/>
-        <v>2.7524505475974759</v>
-      </c>
-      <c r="J12" s="1">
-        <f>(B12-G12)/B12</f>
-        <v>6.062898556392865E-2</v>
-      </c>
-      <c r="K12" s="1">
-        <f>(E12-F12)/E12</f>
-        <v>0.48683344070115159</v>
-      </c>
-      <c r="L12">
-        <f>B12/G12</f>
-        <v>1.0645421081044595</v>
-      </c>
-      <c r="M12">
-        <f>E12/F12</f>
-        <v>1.9486850455850506</v>
+        <v>1.3615301483271818</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:15">
       <c r="A13" t="s">
         <v>9</v>
       </c>
       <c r="B13">
-        <v>2984867.0675380002</v>
+        <v>4703191.427015</v>
       </c>
       <c r="C13">
-        <v>1920755.799564</v>
+        <v>2986551.6209149999</v>
       </c>
       <c r="D13">
-        <v>9623017.2723309994</v>
+        <v>13721406.026144</v>
       </c>
       <c r="E13">
-        <v>14054064.460237</v>
+        <v>22236057.005075999</v>
       </c>
       <c r="F13">
-        <v>5724670.3756349999</v>
+        <v>22429024.184432998</v>
       </c>
       <c r="G13">
-        <v>2673664.4183009998</v>
+        <v>3665009.1350759999</v>
       </c>
       <c r="H13">
+        <v>1902358.008715</v>
+      </c>
+      <c r="I13">
+        <f>D13/B13</f>
+        <v>2.9174670516978383</v>
+      </c>
+      <c r="J13">
+        <f>D13/G13</f>
+        <v>3.7438940860537486</v>
+      </c>
+      <c r="K13" s="1">
+        <f>(B13-G13)/B13</f>
+        <v>0.22073996094985845</v>
+      </c>
+      <c r="L13" s="1">
+        <f>(E13-F13)/E13</f>
+        <v>-8.6781203750714245E-3</v>
+      </c>
+      <c r="M13">
+        <f>B13/G13</f>
+        <v>1.2832686778330422</v>
+      </c>
+      <c r="N13">
+        <f>E13/F13</f>
+        <v>0.99139654147366207</v>
+      </c>
+      <c r="O13">
         <f t="shared" si="0"/>
-        <v>3.223934954084346</v>
-      </c>
-      <c r="I13">
-        <f t="shared" si="1"/>
-        <v>3.5991866467841982</v>
-      </c>
-      <c r="J13" s="1">
-        <f>(B13-G13)/B13</f>
-        <v>0.10426013694931105</v>
-      </c>
-      <c r="K13" s="1">
-        <f>(E13-F13)/E13</f>
-        <v>0.59266798641547835</v>
-      </c>
-      <c r="L13">
-        <f>B13/G13</f>
-        <v>1.1163955532739431</v>
-      </c>
-      <c r="M13">
-        <f>E13/F13</f>
-        <v>2.4549997708257703</v>
+        <v>1.5699209124849998</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:15">
       <c r="A14" t="s">
         <v>10</v>
       </c>
       <c r="B14">
-        <v>3761674.1185770002</v>
+        <v>5408424.0256920001</v>
       </c>
       <c r="C14">
-        <v>2894295.7786559998</v>
+        <v>3697185.6304350002</v>
       </c>
       <c r="D14">
-        <v>16298060.395257</v>
+        <v>25730803.092884999</v>
       </c>
       <c r="E14">
-        <v>27126394.285714</v>
+        <v>39014954.010714002</v>
       </c>
       <c r="F14">
-        <v>7458198.4000000004</v>
+        <v>14354875.542857001</v>
       </c>
       <c r="G14">
-        <v>3384521.5494070002</v>
+        <v>4522829.7094860002</v>
       </c>
       <c r="H14">
+        <v>2915555.6521740002</v>
+      </c>
+      <c r="I14">
+        <f>D14/B14</f>
+        <v>4.7575417479573048</v>
+      </c>
+      <c r="J14">
+        <f>D14/G14</f>
+        <v>5.6890939402202676</v>
+      </c>
+      <c r="K14" s="1">
+        <f>(B14-G14)/B14</f>
+        <v>0.16374350679589869</v>
+      </c>
+      <c r="L14" s="1">
+        <f>(E14-F14)/E14</f>
+        <v>0.63206734682001764</v>
+      </c>
+      <c r="M14">
+        <f>B14/G14</f>
+        <v>1.1958053636971098</v>
+      </c>
+      <c r="N14">
+        <f>E14/F14</f>
+        <v>2.7178886988071365</v>
+      </c>
+      <c r="O14">
         <f t="shared" si="0"/>
-        <v>4.3326614378340613</v>
-      </c>
-      <c r="I14">
-        <f t="shared" si="1"/>
-        <v>4.8154695301356769</v>
-      </c>
-      <c r="J14" s="1">
-        <f>(B14-G14)/B14</f>
-        <v>0.10026189331697682</v>
-      </c>
-      <c r="K14" s="1">
-        <f>(E14-F14)/E14</f>
-        <v>0.72505750961793591</v>
-      </c>
-      <c r="L14">
-        <f>B14/G14</f>
-        <v>1.1114345303063828</v>
-      </c>
-      <c r="M14">
-        <f>E14/F14</f>
-        <v>3.6371242531861312</v>
+        <v>1.268089541586412</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:15">
       <c r="A15" t="s">
         <v>11</v>
       </c>
       <c r="B15">
-        <v>6177653.3652689997</v>
+        <v>7658435.4640720002</v>
       </c>
       <c r="C15">
-        <v>6631192.5269459998</v>
+        <v>7322735.8113770001</v>
       </c>
       <c r="D15">
-        <v>25136564.502994001</v>
+        <v>40905346.145209998</v>
       </c>
       <c r="E15">
-        <v>52406305.503356002</v>
+        <v>72301579.499329001</v>
       </c>
       <c r="F15">
-        <v>11324169.277852001</v>
+        <v>21757271.813423</v>
       </c>
       <c r="G15">
-        <v>6081657.820359</v>
+        <v>7225015.0314370003</v>
       </c>
       <c r="H15">
+        <v>7641765.4416169999</v>
+      </c>
+      <c r="I15">
+        <f>D15/B15</f>
+        <v>5.3412144474036705</v>
+      </c>
+      <c r="J15">
+        <f>D15/G15</f>
+        <v>5.6616278259941888</v>
+      </c>
+      <c r="K15" s="1">
+        <f>(B15-G15)/B15</f>
+        <v>5.6593861065788724E-2</v>
+      </c>
+      <c r="L15" s="1">
+        <f>(E15-F15)/E15</f>
+        <v>0.69907612027168897</v>
+      </c>
+      <c r="M15">
+        <f>B15/G15</f>
+        <v>1.0599888624105458</v>
+      </c>
+      <c r="N15">
+        <f>E15/F15</f>
+        <v>3.3230995190639221</v>
+      </c>
+      <c r="O15">
         <f t="shared" si="0"/>
-        <v>4.068950298233422</v>
-      </c>
-      <c r="I15">
-        <f t="shared" si="1"/>
-        <v>4.1331763879984607</v>
-      </c>
-      <c r="J15" s="1">
-        <f>(B15-G15)/B15</f>
-        <v>1.5539160136386137E-2</v>
-      </c>
-      <c r="K15" s="1">
-        <f>(E15-F15)/E15</f>
-        <v>0.78391590154877799</v>
-      </c>
-      <c r="L15">
-        <f>B15/G15</f>
-        <v>1.0157844370310747</v>
-      </c>
-      <c r="M15">
-        <f>E15/F15</f>
-        <v>4.6278278094847209</v>
+        <v>0.95825184210672487</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:15">
       <c r="A16" t="s">
         <v>12</v>
       </c>
       <c r="B16">
-        <v>31022738.817276001</v>
+        <v>43913789.775193997</v>
       </c>
       <c r="C16">
-        <v>26357953.063122999</v>
+        <v>39842185.900331996</v>
       </c>
       <c r="D16">
-        <v>39059607.565890998</v>
+        <v>70122587.363233998</v>
       </c>
       <c r="E16">
-        <v>104952809.30475301</v>
+        <v>141124046.482759</v>
       </c>
       <c r="F16">
-        <v>18959061.860204998</v>
+        <v>29023627.309413001</v>
       </c>
       <c r="G16">
-        <v>11614339.118494</v>
+        <v>14953310.919158</v>
       </c>
       <c r="H16">
+        <v>13108225.839423999</v>
+      </c>
+      <c r="I16">
+        <f>D16/B16</f>
+        <v>1.5968238615298198</v>
+      </c>
+      <c r="J16">
+        <f>D16/G16</f>
+        <v>4.6894355198214859</v>
+      </c>
+      <c r="K16" s="1">
+        <f>(B16-G16)/B16</f>
+        <v>0.65948484529101559</v>
+      </c>
+      <c r="L16" s="1">
+        <f>(E16-F16)/E16</f>
+        <v>0.79433960382535662</v>
+      </c>
+      <c r="M16">
+        <f>B16/G16</f>
+        <v>2.9367268568549711</v>
+      </c>
+      <c r="N16">
+        <f>E16/F16</f>
+        <v>4.8623848762345903</v>
+      </c>
+      <c r="O16">
         <f t="shared" si="0"/>
-        <v>1.2590638046483313</v>
-      </c>
-      <c r="I16">
-        <f t="shared" si="1"/>
-        <v>3.3630503782772059</v>
-      </c>
-      <c r="J16" s="1">
-        <f>(B16-G16)/B16</f>
-        <v>0.62561851205651176</v>
-      </c>
-      <c r="K16" s="1">
-        <f>(E16-F16)/E16</f>
-        <v>0.81935631846544199</v>
-      </c>
-      <c r="L16">
-        <f>B16/G16</f>
-        <v>2.6710722410263696</v>
-      </c>
-      <c r="M16">
-        <f>E16/F16</f>
-        <v>5.5357596319176832</v>
+        <v>3.0394796663102608</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:15">
       <c r="A17" t="s">
         <v>13</v>
       </c>
       <c r="B17">
-        <v>166310857.54197401</v>
+        <v>237156380.63263899</v>
       </c>
       <c r="C17">
-        <v>126769559.360645</v>
+        <v>208118950.02686399</v>
       </c>
       <c r="D17">
-        <v>118448278.86635301</v>
+        <v>167143421.95970401</v>
       </c>
       <c r="E17">
-        <v>210002267.81774601</v>
+        <v>278491486.094724</v>
       </c>
       <c r="F17">
-        <v>33610547.414867997</v>
+        <v>38988080.588729002</v>
       </c>
       <c r="G17">
-        <v>36878942.216252998</v>
+        <v>41890232.914708003</v>
       </c>
       <c r="H17">
+        <v>30557898.556749001</v>
+      </c>
+      <c r="I17">
+        <f>D17/B17</f>
+        <v>0.70478146745970649</v>
+      </c>
+      <c r="J17">
+        <f>D17/G17</f>
+        <v>3.9900332447427997</v>
+      </c>
+      <c r="K17" s="1">
+        <f>(B17-G17)/B17</f>
+        <v>0.82336451246657782</v>
+      </c>
+      <c r="L17" s="1">
+        <f>(E17-F17)/E17</f>
+        <v>0.86000261216076146</v>
+      </c>
+      <c r="M17">
+        <f>B17/G17</f>
+        <v>5.6613765102597808</v>
+      </c>
+      <c r="N17">
+        <f>E17/F17</f>
+        <v>7.1429904188520794</v>
+      </c>
+      <c r="O17">
         <f t="shared" si="0"/>
-        <v>0.71221013839375269</v>
-      </c>
-      <c r="I17">
-        <f t="shared" si="1"/>
-        <v>3.2118133478934601</v>
-      </c>
-      <c r="J17" s="1">
-        <f>(B17-G17)/B17</f>
-        <v>0.77825294895767472</v>
-      </c>
-      <c r="K17" s="1">
-        <f>(E17-F17)/E17</f>
-        <v>0.83995150259978391</v>
-      </c>
-      <c r="L17">
-        <f>B17/G17</f>
-        <v>4.5096428353815092</v>
-      </c>
-      <c r="M17">
-        <f>E17/F17</f>
-        <v>6.2481061443482826</v>
+        <v>6.8106433968411402</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:15">
       <c r="A18" t="s">
         <v>14</v>
       </c>
       <c r="B18">
-        <v>423530338.07825702</v>
+        <v>599069120.78459096</v>
       </c>
       <c r="C18">
-        <v>405325884.51472402</v>
+        <v>586296462.39814401</v>
       </c>
       <c r="D18">
-        <v>410343850.791448</v>
+        <v>580165555.40621197</v>
       </c>
       <c r="E18">
-        <v>419611117.31885999</v>
+        <v>553004213.537992</v>
       </c>
       <c r="F18">
-        <v>60129273.443691</v>
+        <v>65604289.218452998</v>
       </c>
       <c r="G18">
-        <v>75672211.440097004</v>
+        <v>73903598.784994006</v>
       </c>
       <c r="H18">
+        <v>77898191.146430001</v>
+      </c>
+      <c r="I18">
+        <f>D18/B18</f>
+        <v>0.96844510137057094</v>
+      </c>
+      <c r="J18">
+        <f>D18/G18</f>
+        <v>7.850301811337685</v>
+      </c>
+      <c r="K18" s="1">
+        <f>(B18-G18)/B18</f>
+        <v>0.87663594029316072</v>
+      </c>
+      <c r="L18" s="1">
+        <f>(E18-F18)/E18</f>
+        <v>0.88136746951938749</v>
+      </c>
+      <c r="M18">
+        <f>B18/G18</f>
+        <v>8.1060886158933698</v>
+      </c>
+      <c r="N18">
+        <f>E18/F18</f>
+        <v>8.4293911286282857</v>
+      </c>
+      <c r="O18">
         <f t="shared" si="0"/>
-        <v>0.96886530644618774</v>
-      </c>
-      <c r="I18">
-        <f t="shared" si="1"/>
-        <v>5.4226491202293055</v>
-      </c>
-      <c r="J18" s="1">
-        <f>(B18-G18)/B18</f>
-        <v>0.82132989154105218</v>
-      </c>
-      <c r="K18" s="1">
-        <f>(E18-F18)/E18</f>
-        <v>0.85670238236800778</v>
-      </c>
-      <c r="L18">
-        <f>B18/G18</f>
-        <v>5.5969071078823767</v>
-      </c>
-      <c r="M18">
-        <f>E18/F18</f>
-        <v>6.9784830796568897</v>
+        <v>7.5264451429436487</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:15">
       <c r="A19" t="s">
         <v>15</v>
       </c>
       <c r="B19">
-        <v>854514624.25364995</v>
+        <v>1221762750.18731</v>
       </c>
       <c r="C19">
-        <v>857495023.92657495</v>
+        <v>1246693994.91134</v>
       </c>
       <c r="D19">
-        <v>820898667.34084296</v>
+        <v>1165191012.3996601</v>
       </c>
       <c r="E19">
-        <v>843887778.655123</v>
+        <v>1116774565.9754601</v>
       </c>
       <c r="F19">
-        <v>120381462.049062</v>
+        <v>119444540.898268</v>
       </c>
       <c r="G19">
-        <v>128732828.44889399</v>
+        <v>123711559.062995</v>
       </c>
       <c r="H19">
+        <v>126509188.449103</v>
+      </c>
+      <c r="I19">
+        <f>D19/B19</f>
+        <v>0.95369662581464631</v>
+      </c>
+      <c r="J19">
+        <f>D19/G19</f>
+        <v>9.4186106878366527</v>
+      </c>
+      <c r="K19" s="1">
+        <f>(B19-G19)/B19</f>
+        <v>0.89874338610828608</v>
+      </c>
+      <c r="L19" s="1">
+        <f>(E19-F19)/E19</f>
+        <v>0.89304507414713752</v>
+      </c>
+      <c r="M19">
+        <f>B19/G19</f>
+        <v>9.8758980926364188</v>
+      </c>
+      <c r="N19">
+        <f>E19/F19</f>
+        <v>9.3497330022527123</v>
+      </c>
+      <c r="O19">
         <f t="shared" si="0"/>
-        <v>0.96066075879957258</v>
-      </c>
-      <c r="I19">
-        <f t="shared" si="1"/>
-        <v>6.3767624562582634</v>
-      </c>
-      <c r="J19" s="1">
-        <f>(B19-G19)/B19</f>
-        <v>0.84934976559197939</v>
-      </c>
-      <c r="K19" s="1">
-        <f>(E19-F19)/E19</f>
-        <v>0.8573489685549065</v>
-      </c>
-      <c r="L19">
-        <f>B19/G19</f>
-        <v>6.6378920944231883</v>
-      </c>
-      <c r="M19">
-        <f>E19/F19</f>
-        <v>7.0101140515405334</v>
+        <v>9.854572700961624</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:15">
       <c r="A20" t="s">
         <v>16</v>
       </c>
       <c r="B20">
-        <v>1706046602.46454</v>
+        <v>2451543939.2768602</v>
       </c>
       <c r="C20">
-        <v>1712713619.95597</v>
+        <v>2508185308.1338902</v>
       </c>
       <c r="D20">
-        <v>1649389155.8524899</v>
+        <v>2342106543.5364799</v>
       </c>
       <c r="E20">
-        <v>1676407414.7435701</v>
+        <v>2239463098.80934</v>
       </c>
       <c r="F20">
-        <v>273150755.89176702</v>
+        <v>258907931.78623</v>
       </c>
       <c r="G20">
-        <v>264084125.044366</v>
+        <v>241528175.859072</v>
       </c>
       <c r="H20">
+        <v>242616213.80006799</v>
+      </c>
+      <c r="I20">
+        <f>D20/B20</f>
+        <v>0.9553598065337302</v>
+      </c>
+      <c r="J20">
+        <f>D20/G20</f>
+        <v>9.6970323864121895</v>
+      </c>
+      <c r="K20" s="1">
+        <f>(B20-G20)/B20</f>
+        <v>0.90147915687355917</v>
+      </c>
+      <c r="L20" s="1">
+        <f>(E20-F20)/E20</f>
+        <v>0.88438839116220125</v>
+      </c>
+      <c r="M20">
+        <f>B20/G20</f>
+        <v>10.150136440840338</v>
+      </c>
+      <c r="N20">
+        <f>E20/F20</f>
+        <v>8.6496504118629165</v>
+      </c>
+      <c r="O20">
         <f t="shared" si="0"/>
-        <v>0.96679021163302148</v>
-      </c>
-      <c r="I20">
-        <f t="shared" si="1"/>
-        <v>6.2456959712189946</v>
-      </c>
-      <c r="J20" s="1">
-        <f>(B20-G20)/B20</f>
-        <v>0.84520696875286272</v>
-      </c>
-      <c r="K20" s="1">
-        <f>(E20-F20)/E20</f>
-        <v>0.83706183026305137</v>
-      </c>
-      <c r="L20">
-        <f>B20/G20</f>
-        <v>6.4602391460597071</v>
-      </c>
-      <c r="M20">
-        <f>E20/F20</f>
-        <v>6.1372973663226036</v>
+        <v>10.33807785905357</v>
       </c>
     </row>
   </sheetData>
